--- a/downloads/internship_python-django.xlsx
+++ b/downloads/internship_python-django.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,756 +1460,6 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Backend Development</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>GrowthGear</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-growthgear1748859180</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>['Express.js', 'Node.js', 'Python', 'REST API', 'SQL']</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Uplyft</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-full-stack-development-internship-at-uplyft1748856102</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>['CSS3', 'Database Management System (DBMS)', 'Django', 'Flask', 'Frontend development', 'HTML 5', 'MySQL', 'PHP', 'Responsive Design', 'REST API', 'Shopify']</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Backend Development</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>HLSR Technologies (Ask IRa)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-hlsr-technologies-ask-ira1748846001</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>['Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Python Programming</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Maxgen Technologies Private Limited</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/python-programming-internship-in-ahmedabad-at-maxgen-technologies-private-limited1748839208</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>['Django', 'Machine Learning', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Backend Development</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Nexotech Solutions</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/part-time-backend-development-internship-in-multiple-locations-at-nexotech-solutions1748839142</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>['Django', 'Java', 'NoSQL', 'Python', 'REST API', 'Spring Boot', 'SQL']</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI Engineering</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Icecreamlabs</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-ai-engineering-internship-at-icecreamlabs1748699914</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>['Prompt Engineering', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Summer Project</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Maxgen Technologies Private Limited</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/summer-project-internship-in-ahmedabad-at-maxgen-technologies-private-limited1748673327</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>['Data Science', 'Flutter', 'Java', 'MERN', 'Python', 'React']</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Python Development</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Rythukart Private Limited</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-python-development-internship-at-rythukart-private-limited1748610975</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>['Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Django Developer</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>AppVersal</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/django-developer-internship-in-noida-at-appversal1748521037</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>['Backend development', 'Django', 'GitHub', 'Python', 'REST API', 'SQL']</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ParchAi</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-parchai1748495122</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>['Amazon Web Services (AWS)', 'Cursor (GenAI)', 'Database Management System (DBMS)', 'Python', 'React Native', 'SQL', 'TypeScript', 'Vibe Coding']</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Python Development</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Digite Infotech Private Limited</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/python-development-internship-in-mumbai-at-digite-infotech-private-limited1748493941</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>['FastAPI', 'MongoDB', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Podha Protocol</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-software-development-internship-at-podha-protocol1748422139</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>['Algorithms', 'Automation', 'CSS', 'Django', 'Flask', 'HTML', 'JavaScript', 'jQuery', 'Machine Learning', 'Node.js', 'Python', 'REST API']</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Python Backend Developer</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>AIqwip</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-python-backend-developer-internship-at-aiqwip1748419739</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>['Django', 'Django Rest Framework', 'FastAPI', 'Generative AI Development', 'Generative AI Tools', 'LangChain', 'LLM evaluation', 'Prompt Engineering', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Python Development</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Moneyy.ai</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-python-development-internship-at-moneyyai1748403670</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['CSS', 'Django', 'HTML', 'Machine Learning', 'Python', 'REST API']</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Python Development</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Everything About AI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-python-development-internship-at-everything-about-ai1748408790</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>['Artificial intelligence', 'CSS', 'Cursor (GenAI)', 'Deep Learning', 'Machine Learning', 'MongoDB', 'PostgreSQL', 'Prompt Engineering', 'Python', 'REST API', 'Vibe Coding']</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Backend Development</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>FreJun Incorporation</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-frejun-incorporation1748320226</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>['Django', 'Git', 'MySQL', 'PostgreSQL', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Python Development</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Maxgen Technologies Private Limited</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/python-development-internship-in-pune-at-maxgen-technologies-private-limited1748279784</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['Django', 'HTML', 'Machine Learning', 'Python', 'REST API']</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>SociolinQ Technologies Private Limited</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-sociolinq-technologies-private-limited1748262879</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['Django', 'FastAPI', 'PostgreSQL', 'Python', 'React']</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Software Development Engineering (Web)</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Tekas Footcare Private LImited</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/part-time-software-development-engineering-web-internship-in-pune-at-tekas-footcare-private-limited1748247195</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['CSS', 'HTML', 'Java', 'JavaScript', 'jQuery', 'MySQL', 'PHP', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Freshers Job Fair .IN</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/software-development-internship-in-cochin-at-freshers-job-fair-in1748235190</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['.NET', 'C++ Programming', 'CSS', 'HTML', 'Java', 'JavaScript', 'MySQL', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Freshers Job Fair .IN</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/software-development-internship-in-pune-at-freshers-job-fair-in1748235162</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>['.NET', 'C++ Programming', 'CSS', 'HTML', 'Java', 'JavaScript', 'MySQL', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Business Analytics</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Pro India</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/business-analytics-internship-in-multiple-locations-at-pro-india1748156837</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>['ChatGPT', 'MS-Office', 'Prompt Engineering', 'Python', 'Research and Analytics', 'Statistical Modeling']</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Python Development</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>RegisterKaro</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/python-development-internship-in-gurgaon-at-registerkaro1748155840</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>['Flask', 'Machine Learning', 'REST API']</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Data (Python &amp; SQL)</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Baweja Media</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-data-python-sql-internship-at-baweja-media1748060010</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>['Python', 'SQL']</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Robotics Engineer</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Diamond Band Knife</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/part-time-robotics-engineer-internship-in-hyderabad-at-diamond-band-knife1747649484</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>['C++ Programming', 'Java', 'MATLAB', 'Python', 'Robotics']</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Software Engineering (Python + LLM Agents)</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Bodhi Labs Software Services Private Limited</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/software-engineering-python-llm-agents-internship-in-bangalore-at-bodhi-labs-software-services-private-limited1747282066</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>['JavaScript', 'Python', 'React', 'SQLite']</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Factech Automation Solutions Private Limited</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-factech-automation-solutions-private-limited1747212274</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>['JavaScript', 'Machine Learning', 'MySQL', 'PHP', 'Python', 'React']</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>AI &amp; Python Developer</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>METATAARAKA AI INNOVATIONS PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-ai-python-developer-internship-at-metataaraka-ai-innovations-private-limited1747118896</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>['Data Structures', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ridvig Technologies</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-ridvig-technologies1746697155</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>['CSS', 'Django', 'Docker', 'HTML', 'JavaScript', 'jQuery', 'MySQL', 'React']</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Solutions Developer</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Incentius</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://internshala.com/internship/detail/solutions-developer-internship-in-pune-at-incentius1746170217</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>['.NET', 'Analytical Thinking', 'Cloud Computing', 'CSS', 'Django', 'Express.js', 'Flask', 'HTML', 'Java', 'JavaScript', 'Linux', 'Logical reasoning', 'PHP', 'Problem Solving', 'Python', 'SQL']</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/downloads/internship_python-django.xlsx
+++ b/downloads/internship_python-django.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,6 +1460,756 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GrowthGear</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-growthgear1748859180</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['Express.js', 'Node.js', 'Python', 'REST API', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Uplyft</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-full-stack-development-internship-at-uplyft1748856102</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['CSS3', 'Database Management System (DBMS)', 'Django', 'Flask', 'Frontend development', 'HTML 5', 'MySQL', 'PHP', 'Responsive Design', 'REST API', 'Shopify']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HLSR Technologies (Ask IRa)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-hlsr-technologies-ask-ira1748846001</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Python Programming</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Maxgen Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-programming-internship-in-ahmedabad-at-maxgen-technologies-private-limited1748839208</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['Django', 'Machine Learning', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nexotech Solutions</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-backend-development-internship-in-multiple-locations-at-nexotech-solutions1748839142</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['Django', 'Java', 'NoSQL', 'Python', 'REST API', 'Spring Boot', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI Engineering</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Icecreamlabs</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-ai-engineering-internship-at-icecreamlabs1748699914</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['Prompt Engineering', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Summer Project</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Maxgen Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/summer-project-internship-in-ahmedabad-at-maxgen-technologies-private-limited1748673327</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['Data Science', 'Flutter', 'Java', 'MERN', 'Python', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rythukart Private Limited</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-python-development-internship-at-rythukart-private-limited1748610975</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Django Developer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AppVersal</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/django-developer-internship-in-noida-at-appversal1748521037</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['Backend development', 'Django', 'GitHub', 'Python', 'REST API', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ParchAi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-parchai1748495122</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['Amazon Web Services (AWS)', 'Cursor (GenAI)', 'Database Management System (DBMS)', 'Python', 'React Native', 'SQL', 'TypeScript', 'Vibe Coding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Digite Infotech Private Limited</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-mumbai-at-digite-infotech-private-limited1748493941</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['FastAPI', 'MongoDB', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Podha Protocol</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-software-development-internship-at-podha-protocol1748422139</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['Algorithms', 'Automation', 'CSS', 'Django', 'Flask', 'HTML', 'JavaScript', 'jQuery', 'Machine Learning', 'Node.js', 'Python', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Python Backend Developer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AIqwip</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-python-backend-developer-internship-at-aiqwip1748419739</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['Django', 'Django Rest Framework', 'FastAPI', 'Generative AI Development', 'Generative AI Tools', 'LangChain', 'LLM evaluation', 'Prompt Engineering', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Moneyy.ai</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-python-development-internship-at-moneyyai1748403670</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['CSS', 'Django', 'HTML', 'Machine Learning', 'Python', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Everything About AI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-python-development-internship-at-everything-about-ai1748408790</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['Artificial intelligence', 'CSS', 'Cursor (GenAI)', 'Deep Learning', 'Machine Learning', 'MongoDB', 'PostgreSQL', 'Prompt Engineering', 'Python', 'REST API', 'Vibe Coding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FreJun Incorporation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-frejun-incorporation1748320226</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['Django', 'Git', 'MySQL', 'PostgreSQL', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Maxgen Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-pune-at-maxgen-technologies-private-limited1748279784</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['Django', 'HTML', 'Machine Learning', 'Python', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SociolinQ Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-sociolinq-technologies-private-limited1748262879</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['Django', 'FastAPI', 'PostgreSQL', 'Python', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Software Development Engineering (Web)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tekas Footcare Private LImited</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-software-development-engineering-web-internship-in-pune-at-tekas-footcare-private-limited1748247195</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Java', 'JavaScript', 'jQuery', 'MySQL', 'PHP', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Freshers Job Fair .IN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/software-development-internship-in-cochin-at-freshers-job-fair-in1748235190</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['.NET', 'C++ Programming', 'CSS', 'HTML', 'Java', 'JavaScript', 'MySQL', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Freshers Job Fair .IN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/software-development-internship-in-pune-at-freshers-job-fair-in1748235162</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['.NET', 'C++ Programming', 'CSS', 'HTML', 'Java', 'JavaScript', 'MySQL', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Business Analytics</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pro India</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-analytics-internship-in-multiple-locations-at-pro-india1748156837</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['ChatGPT', 'MS-Office', 'Prompt Engineering', 'Python', 'Research and Analytics', 'Statistical Modeling']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RegisterKaro</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-gurgaon-at-registerkaro1748155840</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['Flask', 'Machine Learning', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Data (Python &amp; SQL)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Baweja Media</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-data-python-sql-internship-at-baweja-media1748060010</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Robotics Engineer</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Diamond Band Knife</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-robotics-engineer-internship-in-hyderabad-at-diamond-band-knife1747649484</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['C++ Programming', 'Java', 'MATLAB', 'Python', 'Robotics']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Software Engineering (Python + LLM Agents)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bodhi Labs Software Services Private Limited</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/software-engineering-python-llm-agents-internship-in-bangalore-at-bodhi-labs-software-services-private-limited1747282066</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['JavaScript', 'Python', 'React', 'SQLite']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Factech Automation Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-factech-automation-solutions-private-limited1747212274</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['JavaScript', 'Machine Learning', 'MySQL', 'PHP', 'Python', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AI &amp; Python Developer</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>METATAARAKA AI INNOVATIONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-ai-python-developer-internship-at-metataaraka-ai-innovations-private-limited1747118896</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['Data Structures', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ridvig Technologies</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-ridvig-technologies1746697155</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['CSS', 'Django', 'Docker', 'HTML', 'JavaScript', 'jQuery', 'MySQL', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Solutions Developer</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Incentius</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/solutions-developer-internship-in-pune-at-incentius1746170217</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['.NET', 'Analytical Thinking', 'Cloud Computing', 'CSS', 'Django', 'Express.js', 'Flask', 'HTML', 'Java', 'JavaScript', 'Linux', 'Logical reasoning', 'PHP', 'Problem Solving', 'Python', 'SQL']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/downloads/internship_python-django.xlsx
+++ b/downloads/internship_python-django.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,6 +1460,731 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Uplyft</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-full-stack-development-internship-at-uplyft1748856102</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['CSS3', 'Database Management System (DBMS)', 'Django', 'Flask', 'Frontend development', 'HTML 5', 'MySQL', 'PHP', 'Responsive Design', 'REST API', 'Shopify']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HLSR Technologies (Ask IRa)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-hlsr-technologies-ask-ira1748846001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Python Programming</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Maxgen Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-programming-internship-in-ahmedabad-at-maxgen-technologies-private-limited1748839208</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['Django', 'Machine Learning', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nexotech Solutions</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-backend-development-internship-in-multiple-locations-at-nexotech-solutions1748839142</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['Django', 'Java', 'NoSQL', 'Python', 'REST API', 'Spring Boot', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI Engineering</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Icecreamlabs</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-ai-engineering-internship-at-icecreamlabs1748699914</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['Prompt Engineering', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Summer Project</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Maxgen Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/summer-project-internship-in-ahmedabad-at-maxgen-technologies-private-limited1748673327</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['Data Science', 'Flutter', 'Java', 'MERN', 'Python', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rythukart Private Limited</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-python-development-internship-at-rythukart-private-limited1748610975</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Django Developer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AppVersal</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/django-developer-internship-in-noida-at-appversal1748521037</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['Backend development', 'Django', 'GitHub', 'Python', 'REST API', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ParchAi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-parchai1748495122</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['Amazon Web Services (AWS)', 'Cursor (GenAI)', 'Database Management System (DBMS)', 'Python', 'React Native', 'SQL', 'TypeScript', 'Vibe Coding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Digite Infotech Private Limited</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-mumbai-at-digite-infotech-private-limited1748493941</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['FastAPI', 'MongoDB', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Podha Protocol</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-software-development-internship-at-podha-protocol1748422139</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['Algorithms', 'Automation', 'CSS', 'Django', 'Flask', 'HTML', 'JavaScript', 'jQuery', 'Machine Learning', 'Node.js', 'Python', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Python Backend Developer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AIqwip</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-python-backend-developer-internship-at-aiqwip1748419739</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['Django', 'Django Rest Framework', 'FastAPI', 'Generative AI Development', 'Generative AI Tools', 'LangChain', 'LLM evaluation', 'Prompt Engineering', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Moneyy.ai</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-python-development-internship-at-moneyyai1748403670</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['CSS', 'Django', 'HTML', 'Machine Learning', 'Python', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Everything About AI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-python-development-internship-at-everything-about-ai1748408790</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['Artificial intelligence', 'CSS', 'Cursor (GenAI)', 'Deep Learning', 'Machine Learning', 'MongoDB', 'PostgreSQL', 'Prompt Engineering', 'Python', 'REST API', 'Vibe Coding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FreJun Incorporation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-backend-development-internship-at-frejun-incorporation1748320226</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['Django', 'Git', 'MySQL', 'PostgreSQL', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Maxgen Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-pune-at-maxgen-technologies-private-limited1748279784</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['Django', 'HTML', 'Machine Learning', 'Python', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SociolinQ Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-sociolinq-technologies-private-limited1748262879</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['Django', 'FastAPI', 'PostgreSQL', 'Python', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Software Development Engineering (Web)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tekas Footcare Private LImited</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-software-development-engineering-web-internship-in-pune-at-tekas-footcare-private-limited1748247195</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Java', 'JavaScript', 'jQuery', 'MySQL', 'PHP', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Freshers Job Fair .IN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/software-development-internship-in-cochin-at-freshers-job-fair-in1748235190</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['.NET', 'C++ Programming', 'CSS', 'HTML', 'Java', 'JavaScript', 'MySQL', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Freshers Job Fair .IN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/software-development-internship-in-pune-at-freshers-job-fair-in1748235162</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['.NET', 'C++ Programming', 'CSS', 'HTML', 'Java', 'JavaScript', 'MySQL', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Business Analytics</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pro India</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-analytics-internship-in-multiple-locations-at-pro-india1748156837</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['ChatGPT', 'MS-Office', 'Prompt Engineering', 'Python', 'Research and Analytics', 'Statistical Modeling']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Python Development</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RegisterKaro</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-gurgaon-at-registerkaro1748155840</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['Flask', 'Machine Learning', 'REST API']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Data (Python &amp; SQL)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Baweja Media</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-data-python-sql-internship-at-baweja-media1748060010</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Robotics Engineer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Diamond Band Knife</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-robotics-engineer-internship-in-hyderabad-at-diamond-band-knife1747649484</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['C++ Programming', 'Java', 'MATLAB', 'Python', 'Robotics']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Software Engineering (Python + LLM Agents)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bodhi Labs Software Services Private Limited</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/software-engineering-python-llm-agents-internship-in-bangalore-at-bodhi-labs-software-services-private-limited1747282066</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['JavaScript', 'Python', 'React', 'SQLite']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Factech Automation Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-factech-automation-solutions-private-limited1747212274</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['JavaScript', 'Machine Learning', 'MySQL', 'PHP', 'Python', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>AI &amp; Python Developer</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>METATAARAKA AI INNOVATIONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-ai-python-developer-internship-at-metataaraka-ai-innovations-private-limited1747118896</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['Data Structures', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ridvig Technologies</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/work-from-home-full-stack-development-internship-at-ridvig-technologies1746697155</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['CSS', 'Django', 'Docker', 'HTML', 'JavaScript', 'jQuery', 'MySQL', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Solutions Developer</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Incentius</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/solutions-developer-internship-in-pune-at-incentius1746170217</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['.NET', 'Analytical Thinking', 'Cloud Computing', 'CSS', 'Django', 'Express.js', 'Flask', 'HTML', 'Java', 'JavaScript', 'Linux', 'Logical reasoning', 'PHP', 'Problem Solving', 'Python', 'SQL']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
